--- a/data-raw/fluxes/lf_05/lf_05_a_2017-11-06.xlsx
+++ b/data-raw/fluxes/lf_05/lf_05_a_2017-11-06.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/will/Dropbox (Partners HealthCare)/Copeland.2021.hypoxia.flux/inst/extdata/fluxes/lf_05/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/will/Dropbox (Partners HealthCare)/Copeland.2021.hypoxia.flux/data-raw/fluxes/lf_05/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F554635-2CA3-944D-91EE-5922A59EDEFE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{339B41FB-9DFD-5C47-B4CF-1E9D98750E78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5160" yWindow="2080" windowWidth="25600" windowHeight="15540" activeTab="5" xr2:uid="{1D4C4C2F-7A99-D141-A4DB-2424DC3A3300}"/>
+    <workbookView xWindow="16160" yWindow="3380" windowWidth="25600" windowHeight="15540" activeTab="4" xr2:uid="{1D4C4C2F-7A99-D141-A4DB-2424DC3A3300}"/>
   </bookViews>
   <sheets>
     <sheet name="evap" sheetId="10" r:id="rId1"/>
@@ -764,7 +764,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2015C805-04E8-7140-A0B5-5B04D56FB0D2}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
@@ -2291,8 +2291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FF190E9-0DE3-1544-9744-F01325A91800}">
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E53"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:XFD47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3073,8 +3073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73C978D0-9FD8-9042-9B5F-3CF5D620CB7E}">
   <dimension ref="A1:AV53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:AV53"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:XFD47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data-raw/fluxes/lf_05/lf_05_a_2017-11-06.xlsx
+++ b/data-raw/fluxes/lf_05/lf_05_a_2017-11-06.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/will/Dropbox (Partners HealthCare)/Copeland.2021.hypoxia.flux/data-raw/fluxes/lf_05/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{339B41FB-9DFD-5C47-B4CF-1E9D98750E78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9523DB80-F131-384E-A517-D96461388713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16160" yWindow="3380" windowWidth="25600" windowHeight="15540" activeTab="4" xr2:uid="{1D4C4C2F-7A99-D141-A4DB-2424DC3A3300}"/>
+    <workbookView xWindow="16160" yWindow="3380" windowWidth="25600" windowHeight="15540" xr2:uid="{1D4C4C2F-7A99-D141-A4DB-2424DC3A3300}"/>
   </bookViews>
   <sheets>
     <sheet name="evap" sheetId="10" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="58">
   <si>
     <t>id</t>
   </si>
@@ -202,9 +202,6 @@
     <t>mass</t>
   </si>
   <si>
-    <t>treatment</t>
-  </si>
-  <si>
     <t>21%</t>
   </si>
   <si>
@@ -215,9 +212,6 @@
   </si>
   <si>
     <t>oxygen</t>
-  </si>
-  <si>
-    <t>none</t>
   </si>
 </sst>
 </file>
@@ -571,187 +565,148 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{682C5D97-48DD-0647-9CD0-7AA8DCA376D0}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="B2">
+        <v>-24</v>
+      </c>
+      <c r="C2">
+        <v>57.461799999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>69.2059</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4">
+        <v>24</v>
+      </c>
+      <c r="C4">
+        <v>68.906899999999993</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5">
+        <v>48</v>
+      </c>
+      <c r="C5">
+        <v>68.672499999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6">
+        <v>72</v>
+      </c>
+      <c r="C6">
+        <v>68.41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2">
+      <c r="B8">
         <v>-24</v>
       </c>
-      <c r="D2">
-        <v>57.461799999999997</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="C8">
+        <v>59.299199999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3">
+      <c r="B9">
         <v>0</v>
       </c>
-      <c r="D3">
-        <v>69.2059</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="C9">
+        <v>71.209299999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4">
+      <c r="B10">
         <v>24</v>
       </c>
-      <c r="D4">
-        <v>68.906899999999993</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="C10">
+        <v>71.042500000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5">
+      <c r="B11">
         <v>48</v>
       </c>
-      <c r="D5">
-        <v>68.672499999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="C11">
+        <v>70.8566</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6">
+      <c r="B12">
         <v>72</v>
       </c>
-      <c r="D6">
-        <v>68.41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="C12">
+        <v>70.715000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8">
-        <v>-24</v>
-      </c>
-      <c r="D8">
-        <v>59.299199999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>71.209299999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10">
-        <v>24</v>
-      </c>
-      <c r="D10">
-        <v>71.042500000000004</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11">
-        <v>48</v>
-      </c>
-      <c r="D11">
-        <v>70.8566</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12">
-        <v>72</v>
-      </c>
-      <c r="D12">
-        <v>70.715000000000003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13">
+      <c r="B13">
         <v>96</v>
       </c>
     </row>
@@ -772,7 +727,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1373,7 +1328,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1836,7 +1791,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2291,7 +2246,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FF190E9-0DE3-1544-9744-F01325A91800}">
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="A45" sqref="A45:XFD47"/>
     </sheetView>
   </sheetViews>
@@ -2299,7 +2254,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -3081,7 +3036,7 @@
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
